--- a/Code/Results/Cases/Case_5_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02156481381549</v>
+        <v>1.046958558114491</v>
       </c>
       <c r="D2">
-        <v>1.039246417684426</v>
+        <v>1.054052416041449</v>
       </c>
       <c r="E2">
-        <v>1.034357876095463</v>
+        <v>1.054185947263162</v>
       </c>
       <c r="F2">
-        <v>1.043568942742034</v>
+        <v>1.06420249081073</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052180953357296</v>
+        <v>1.044111746295256</v>
       </c>
       <c r="J2">
-        <v>1.043119115285077</v>
+        <v>1.052010179334492</v>
       </c>
       <c r="K2">
-        <v>1.050184780118613</v>
+        <v>1.056796689637625</v>
       </c>
       <c r="L2">
-        <v>1.045358436169514</v>
+        <v>1.056929852692584</v>
       </c>
       <c r="M2">
-        <v>1.054452914295634</v>
+        <v>1.06691906415494</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025624610151373</v>
+        <v>1.047830477798015</v>
       </c>
       <c r="D3">
-        <v>1.042353262455032</v>
+        <v>1.054745458157885</v>
       </c>
       <c r="E3">
-        <v>1.037703929645141</v>
+        <v>1.054953632148761</v>
       </c>
       <c r="F3">
-        <v>1.04717363479532</v>
+        <v>1.065032014408452</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053347636349277</v>
+        <v>1.0443166027211</v>
       </c>
       <c r="J3">
-        <v>1.045440287610796</v>
+        <v>1.052530759808397</v>
       </c>
       <c r="K3">
-        <v>1.052471454694671</v>
+        <v>1.057303205803162</v>
       </c>
       <c r="L3">
-        <v>1.047876081762239</v>
+        <v>1.057510847156796</v>
       </c>
       <c r="M3">
-        <v>1.057236506346743</v>
+        <v>1.067563711040477</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.028204049814317</v>
+        <v>1.048395382249962</v>
       </c>
       <c r="D4">
-        <v>1.044330217393232</v>
+        <v>1.055194523577733</v>
       </c>
       <c r="E4">
-        <v>1.039835420897867</v>
+        <v>1.055451374365455</v>
       </c>
       <c r="F4">
-        <v>1.049469625688485</v>
+        <v>1.065569848291315</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054080935473529</v>
+        <v>1.044448320777421</v>
       </c>
       <c r="J4">
-        <v>1.046912810129518</v>
+        <v>1.052867653377263</v>
       </c>
       <c r="K4">
-        <v>1.053921509753586</v>
+        <v>1.057630897147674</v>
       </c>
       <c r="L4">
-        <v>1.04947571274488</v>
+        <v>1.057887123717556</v>
       </c>
       <c r="M4">
-        <v>1.059005521607633</v>
+        <v>1.067981264146262</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029277426062785</v>
+        <v>1.048633037433901</v>
       </c>
       <c r="D5">
-        <v>1.045153558615697</v>
+        <v>1.055383457526973</v>
       </c>
       <c r="E5">
-        <v>1.040723687361615</v>
+        <v>1.055660862469504</v>
       </c>
       <c r="F5">
-        <v>1.050426386286134</v>
+        <v>1.065796209485627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054384139425988</v>
+        <v>1.044503493774262</v>
       </c>
       <c r="J5">
-        <v>1.047524996589437</v>
+        <v>1.053009292477182</v>
       </c>
       <c r="K5">
-        <v>1.054524209466295</v>
+        <v>1.057768643242555</v>
       </c>
       <c r="L5">
-        <v>1.050141336590324</v>
+        <v>1.058045388973859</v>
       </c>
       <c r="M5">
-        <v>1.059741726711724</v>
+        <v>1.068156903263886</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029457014503038</v>
+        <v>1.048672950669266</v>
       </c>
       <c r="D6">
-        <v>1.045291351813453</v>
+        <v>1.055415188927776</v>
       </c>
       <c r="E6">
-        <v>1.040872379837005</v>
+        <v>1.055696050304754</v>
       </c>
       <c r="F6">
-        <v>1.050586541070969</v>
+        <v>1.065834231472323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05443475397358</v>
+        <v>1.044512745739651</v>
       </c>
       <c r="J6">
-        <v>1.047627388200852</v>
+        <v>1.053033074797942</v>
       </c>
       <c r="K6">
-        <v>1.054625005593356</v>
+        <v>1.057791770478991</v>
       </c>
       <c r="L6">
-        <v>1.050252700817174</v>
+        <v>1.058071966973496</v>
       </c>
       <c r="M6">
-        <v>1.059864905552844</v>
+        <v>1.068186399650323</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.028218435160686</v>
+        <v>1.048398557146728</v>
       </c>
       <c r="D7">
-        <v>1.044341249165273</v>
+        <v>1.055197047547639</v>
       </c>
       <c r="E7">
-        <v>1.039847320345859</v>
+        <v>1.055454172625719</v>
       </c>
       <c r="F7">
-        <v>1.049482442928697</v>
+        <v>1.065572871937847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054085006709003</v>
+        <v>1.044449058793465</v>
       </c>
       <c r="J7">
-        <v>1.04692101691937</v>
+        <v>1.052869545931937</v>
       </c>
       <c r="K7">
-        <v>1.053929589952407</v>
+        <v>1.057632737779722</v>
       </c>
       <c r="L7">
-        <v>1.049484633555333</v>
+        <v>1.057889238158657</v>
       </c>
       <c r="M7">
-        <v>1.059015387971197</v>
+        <v>1.067983610654623</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022946899736508</v>
+        <v>1.047253078624127</v>
       </c>
       <c r="D8">
-        <v>1.040303438187482</v>
+        <v>1.054286503252453</v>
       </c>
       <c r="E8">
-        <v>1.035495800364548</v>
+        <v>1.054445182064364</v>
       </c>
       <c r="F8">
-        <v>1.044794880396589</v>
+        <v>1.06448260811233</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052579779044931</v>
+        <v>1.044181151514525</v>
       </c>
       <c r="J8">
-        <v>1.043909773486161</v>
+        <v>1.052186102219871</v>
       </c>
       <c r="K8">
-        <v>1.050963805558479</v>
+        <v>1.05696788044788</v>
       </c>
       <c r="L8">
-        <v>1.046215502106085</v>
+        <v>1.057126132408524</v>
       </c>
       <c r="M8">
-        <v>1.055400428809195</v>
+        <v>1.067136836953073</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013277038451334</v>
+        <v>1.045240139592754</v>
       </c>
       <c r="D9">
-        <v>1.032922249531312</v>
+        <v>1.052686841418247</v>
       </c>
       <c r="E9">
-        <v>1.027559100289077</v>
+        <v>1.05267494202276</v>
       </c>
       <c r="F9">
-        <v>1.036243098023158</v>
+        <v>1.062569754781738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049756979168105</v>
+        <v>1.043702680197919</v>
       </c>
       <c r="J9">
-        <v>1.038369507154073</v>
+        <v>1.0509821752574</v>
       </c>
       <c r="K9">
-        <v>1.04550285009254</v>
+        <v>1.055795928480066</v>
       </c>
       <c r="L9">
-        <v>1.040220332220762</v>
+        <v>1.055784066568081</v>
       </c>
       <c r="M9">
-        <v>1.048774303610934</v>
+        <v>1.065648026917974</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006549728387506</v>
+        <v>1.043902001160398</v>
       </c>
       <c r="D10">
-        <v>1.027807324016393</v>
+        <v>1.051623756307175</v>
       </c>
       <c r="E10">
-        <v>1.022070810891464</v>
+        <v>1.051500088601749</v>
       </c>
       <c r="F10">
-        <v>1.030327789291634</v>
+        <v>1.061300235135973</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047753484008081</v>
+        <v>1.043379449530866</v>
       </c>
       <c r="J10">
-        <v>1.034505870819053</v>
+        <v>1.050179895633573</v>
       </c>
       <c r="K10">
-        <v>1.041692025944874</v>
+        <v>1.055014446313408</v>
       </c>
       <c r="L10">
-        <v>1.036052685411643</v>
+        <v>1.054891206176154</v>
       </c>
       <c r="M10">
-        <v>1.044170237174459</v>
+        <v>1.064657809341672</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003564231802069</v>
+        <v>1.04332349885199</v>
       </c>
       <c r="D11">
-        <v>1.025542832033039</v>
+        <v>1.051164247211499</v>
       </c>
       <c r="E11">
-        <v>1.019643647933877</v>
+        <v>1.050992645845067</v>
       </c>
       <c r="F11">
-        <v>1.02771133096069</v>
+        <v>1.060751899096817</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046855412913037</v>
+        <v>1.043238488100151</v>
       </c>
       <c r="J11">
-        <v>1.032789482624745</v>
+        <v>1.049832596262965</v>
       </c>
       <c r="K11">
-        <v>1.039998605530487</v>
+        <v>1.054676029952137</v>
       </c>
       <c r="L11">
-        <v>1.034204384189301</v>
+        <v>1.054505044747059</v>
       </c>
       <c r="M11">
-        <v>1.042128913411557</v>
+        <v>1.064229605046871</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002443851303124</v>
+        <v>1.043108757238664</v>
       </c>
       <c r="D12">
-        <v>1.0246939038897</v>
+        <v>1.050993689153792</v>
       </c>
       <c r="E12">
-        <v>1.018734120428104</v>
+        <v>1.050804352669001</v>
       </c>
       <c r="F12">
-        <v>1.02673079738211</v>
+        <v>1.060548431123664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046517086855279</v>
+        <v>1.043185979158959</v>
       </c>
       <c r="J12">
-        <v>1.032145141868976</v>
+        <v>1.049703609095772</v>
       </c>
       <c r="K12">
-        <v>1.039362821505823</v>
+        <v>1.054550323988236</v>
       </c>
       <c r="L12">
-        <v>1.033510995266758</v>
+        <v>1.054361676722299</v>
       </c>
       <c r="M12">
-        <v>1.041363191322516</v>
+        <v>1.064070637623058</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002684703136238</v>
+        <v>1.043154813686889</v>
       </c>
       <c r="D13">
-        <v>1.024876360084661</v>
+        <v>1.051030268792048</v>
       </c>
       <c r="E13">
-        <v>1.018929583788736</v>
+        <v>1.050844733400948</v>
       </c>
       <c r="F13">
-        <v>1.026941523717733</v>
+        <v>1.060592066230378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046589876114496</v>
+        <v>1.043197249262874</v>
       </c>
       <c r="J13">
-        <v>1.032283667374635</v>
+        <v>1.049731276568377</v>
       </c>
       <c r="K13">
-        <v>1.039499510234172</v>
+        <v>1.054577288460783</v>
       </c>
       <c r="L13">
-        <v>1.03366004416467</v>
+        <v>1.054392426480678</v>
       </c>
       <c r="M13">
-        <v>1.041527785169498</v>
+        <v>1.064104732725039</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003471857277602</v>
+        <v>1.043305745379946</v>
       </c>
       <c r="D14">
-        <v>1.025472820350463</v>
+        <v>1.051150146287525</v>
       </c>
       <c r="E14">
-        <v>1.019568630834968</v>
+        <v>1.050977077511004</v>
       </c>
       <c r="F14">
-        <v>1.027630458821019</v>
+        <v>1.060735076107066</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046827544439856</v>
+        <v>1.043234150742145</v>
       </c>
       <c r="J14">
-        <v>1.032736361542961</v>
+        <v>1.049821933824146</v>
       </c>
       <c r="K14">
-        <v>1.039946191167785</v>
+        <v>1.054665639112478</v>
       </c>
       <c r="L14">
-        <v>1.034147209837035</v>
+        <v>1.054493192474676</v>
       </c>
       <c r="M14">
-        <v>1.042065773115963</v>
+        <v>1.064216462971689</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003955317156358</v>
+        <v>1.04339875796408</v>
       </c>
       <c r="D15">
-        <v>1.025839276143924</v>
+        <v>1.051224023265178</v>
       </c>
       <c r="E15">
-        <v>1.019961301621985</v>
+        <v>1.05105864480267</v>
       </c>
       <c r="F15">
-        <v>1.028053774383122</v>
+        <v>1.060823216892016</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04697334657275</v>
+        <v>1.043256867160706</v>
       </c>
       <c r="J15">
-        <v>1.033014372058954</v>
+        <v>1.049877792815791</v>
       </c>
       <c r="K15">
-        <v>1.040220500433459</v>
+        <v>1.054720074500278</v>
       </c>
       <c r="L15">
-        <v>1.0344464525253</v>
+        <v>1.054555286985651</v>
       </c>
       <c r="M15">
-        <v>1.042396243959226</v>
+        <v>1.064285315203361</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006746292732305</v>
+        <v>1.043940413984006</v>
       </c>
       <c r="D16">
-        <v>1.027956536219972</v>
+        <v>1.051654269713123</v>
       </c>
       <c r="E16">
-        <v>1.022230795770529</v>
+        <v>1.051533792961221</v>
       </c>
       <c r="F16">
-        <v>1.030500241721181</v>
+        <v>1.061336655516735</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047812429593102</v>
+        <v>1.043388783659832</v>
       </c>
       <c r="J16">
-        <v>1.03461884408211</v>
+        <v>1.050202946820233</v>
       </c>
       <c r="K16">
-        <v>1.041803477892114</v>
+        <v>1.05503690538899</v>
       </c>
       <c r="L16">
-        <v>1.036174406801064</v>
+        <v>1.05491684410781</v>
       </c>
       <c r="M16">
-        <v>1.044304681189548</v>
+        <v>1.064686239922704</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008477210817835</v>
+        <v>1.044280428066073</v>
       </c>
       <c r="D17">
-        <v>1.029271106282108</v>
+        <v>1.051924371098065</v>
       </c>
       <c r="E17">
-        <v>1.023640572377556</v>
+        <v>1.051832183933515</v>
       </c>
       <c r="F17">
-        <v>1.032019829824623</v>
+        <v>1.061659091340694</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048330481004176</v>
+        <v>1.043471264055973</v>
       </c>
       <c r="J17">
-        <v>1.035613475422609</v>
+        <v>1.050406933160311</v>
       </c>
       <c r="K17">
-        <v>1.042784660141082</v>
+        <v>1.055235638117655</v>
       </c>
       <c r="L17">
-        <v>1.037246415858427</v>
+        <v>1.055143761655923</v>
       </c>
       <c r="M17">
-        <v>1.04548879917134</v>
+        <v>1.064937882201134</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009479866238881</v>
+        <v>1.044478841230515</v>
       </c>
       <c r="D18">
-        <v>1.03003310102985</v>
+        <v>1.052081995061418</v>
       </c>
       <c r="E18">
-        <v>1.024458004620176</v>
+        <v>1.052006353380045</v>
       </c>
       <c r="F18">
-        <v>1.032900891724577</v>
+        <v>1.061847295174108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048629715361942</v>
+        <v>1.043519276901784</v>
       </c>
       <c r="J18">
-        <v>1.036189458279326</v>
+        <v>1.050525923826597</v>
       </c>
       <c r="K18">
-        <v>1.043352807248604</v>
+        <v>1.05535155262544</v>
       </c>
       <c r="L18">
-        <v>1.037867505936489</v>
+        <v>1.055276162433554</v>
       </c>
       <c r="M18">
-        <v>1.046174891662932</v>
+        <v>1.065084715430633</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009820581126311</v>
+        <v>1.044546509988699</v>
       </c>
       <c r="D19">
-        <v>1.030292121860433</v>
+        <v>1.052135754001368</v>
       </c>
       <c r="E19">
-        <v>1.024735912865524</v>
+        <v>1.052065761473198</v>
       </c>
       <c r="F19">
-        <v>1.033200425520535</v>
+        <v>1.061911490227476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048731253018017</v>
+        <v>1.043535631639219</v>
       </c>
       <c r="J19">
-        <v>1.036385154575816</v>
+        <v>1.05056649803606</v>
       </c>
       <c r="K19">
-        <v>1.043545832956559</v>
+        <v>1.055391075938611</v>
       </c>
       <c r="L19">
-        <v>1.038078578493112</v>
+        <v>1.05532131502983</v>
       </c>
       <c r="M19">
-        <v>1.046408063222948</v>
+        <v>1.065134790970212</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008292223358799</v>
+        <v>1.044243938586328</v>
       </c>
       <c r="D20">
-        <v>1.029130561235279</v>
+        <v>1.051895383653755</v>
       </c>
       <c r="E20">
-        <v>1.023489822562849</v>
+        <v>1.051800156665931</v>
       </c>
       <c r="F20">
-        <v>1.031857342111234</v>
+        <v>1.061624483311849</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048275203783341</v>
+        <v>1.043462424674001</v>
       </c>
       <c r="J20">
-        <v>1.035507194033993</v>
+        <v>1.050385046428027</v>
       </c>
       <c r="K20">
-        <v>1.042679820720974</v>
+        <v>1.055214316269955</v>
       </c>
       <c r="L20">
-        <v>1.037131835312124</v>
+        <v>1.055119411029089</v>
       </c>
       <c r="M20">
-        <v>1.045362230810742</v>
+        <v>1.064910877712589</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00324038012307</v>
+        <v>1.043261295883267</v>
       </c>
       <c r="D21">
-        <v>1.025297395583485</v>
+        <v>1.051114841913149</v>
       </c>
       <c r="E21">
-        <v>1.019380670397189</v>
+        <v>1.05093810010824</v>
       </c>
       <c r="F21">
-        <v>1.027427827010726</v>
+        <v>1.060692957492874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046757689235399</v>
+        <v>1.043223288299918</v>
       </c>
       <c r="J21">
-        <v>1.032603244344391</v>
+        <v>1.049795237089495</v>
       </c>
       <c r="K21">
-        <v>1.039814843925729</v>
+        <v>1.054639622121151</v>
       </c>
       <c r="L21">
-        <v>1.034003943084477</v>
+        <v>1.054463517470015</v>
       </c>
       <c r="M21">
-        <v>1.04190755825592</v>
+        <v>1.064183558792073</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9999976409691952</v>
+        <v>1.04264427964534</v>
       </c>
       <c r="D22">
-        <v>1.02284205610075</v>
+        <v>1.050624803130376</v>
       </c>
       <c r="E22">
-        <v>1.01675077451422</v>
+        <v>1.050397212305951</v>
       </c>
       <c r="F22">
-        <v>1.024592476852265</v>
+        <v>1.060108477218626</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045776046457585</v>
+        <v>1.043072068645616</v>
       </c>
       <c r="J22">
-        <v>1.030737937437721</v>
+        <v>1.04942448961842</v>
       </c>
       <c r="K22">
-        <v>1.037974193967939</v>
+        <v>1.054278272074467</v>
       </c>
       <c r="L22">
-        <v>1.031997542068512</v>
+        <v>1.054051534125433</v>
       </c>
       <c r="M22">
-        <v>1.039692003018599</v>
+        <v>1.06372676703718</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001723164738198</v>
+        <v>1.04297129428722</v>
       </c>
       <c r="D23">
-        <v>1.02414808441227</v>
+        <v>1.050884513220619</v>
       </c>
       <c r="E23">
-        <v>1.018149445296714</v>
+        <v>1.050683840245416</v>
       </c>
       <c r="F23">
-        <v>1.026100456404227</v>
+        <v>1.060418206206289</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046299096204098</v>
+        <v>1.043152314810954</v>
       </c>
       <c r="J23">
-        <v>1.031730610529574</v>
+        <v>1.049621020987052</v>
       </c>
       <c r="K23">
-        <v>1.038953777726657</v>
+        <v>1.054469831730156</v>
       </c>
       <c r="L23">
-        <v>1.03306504248088</v>
+        <v>1.05426989560576</v>
       </c>
       <c r="M23">
-        <v>1.040870739829177</v>
+        <v>1.063968872817207</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008375832697981</v>
+        <v>1.044260426337666</v>
       </c>
       <c r="D24">
-        <v>1.029194082214961</v>
+        <v>1.051908481590094</v>
       </c>
       <c r="E24">
-        <v>1.023557954929237</v>
+        <v>1.05181462802962</v>
       </c>
       <c r="F24">
-        <v>1.031930779629041</v>
+        <v>1.061640120781333</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048300190242939</v>
+        <v>1.04346641910871</v>
       </c>
       <c r="J24">
-        <v>1.03555523088167</v>
+        <v>1.05039493607295</v>
       </c>
       <c r="K24">
-        <v>1.042727205978495</v>
+        <v>1.055223950704366</v>
       </c>
       <c r="L24">
-        <v>1.037183622271394</v>
+        <v>1.055130413894628</v>
       </c>
       <c r="M24">
-        <v>1.045419435746916</v>
+        <v>1.064923079710233</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015824511895143</v>
+        <v>1.045759866150321</v>
       </c>
       <c r="D25">
-        <v>1.034863513006972</v>
+        <v>1.053099808588945</v>
       </c>
       <c r="E25">
-        <v>1.029644418152556</v>
+        <v>1.053131664175613</v>
       </c>
       <c r="F25">
-        <v>1.038490301134402</v>
+        <v>1.063063274151133</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050507636473846</v>
+        <v>1.043827128696101</v>
       </c>
       <c r="J25">
-        <v>1.039830807085053</v>
+        <v>1.051293365266783</v>
       </c>
       <c r="K25">
-        <v>1.046943693611745</v>
+        <v>1.056098943913724</v>
       </c>
       <c r="L25">
-        <v>1.041799334418865</v>
+        <v>1.056130702946362</v>
       </c>
       <c r="M25">
-        <v>1.050519106464035</v>
+        <v>1.066032517586609</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046958558114491</v>
+        <v>1.02156481381549</v>
       </c>
       <c r="D2">
-        <v>1.054052416041449</v>
+        <v>1.039246417684426</v>
       </c>
       <c r="E2">
-        <v>1.054185947263162</v>
+        <v>1.034357876095463</v>
       </c>
       <c r="F2">
-        <v>1.06420249081073</v>
+        <v>1.043568942742034</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044111746295256</v>
+        <v>1.052180953357296</v>
       </c>
       <c r="J2">
-        <v>1.052010179334492</v>
+        <v>1.043119115285077</v>
       </c>
       <c r="K2">
-        <v>1.056796689637625</v>
+        <v>1.050184780118614</v>
       </c>
       <c r="L2">
-        <v>1.056929852692584</v>
+        <v>1.045358436169513</v>
       </c>
       <c r="M2">
-        <v>1.06691906415494</v>
+        <v>1.054452914295634</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047830477798015</v>
+        <v>1.025624610151373</v>
       </c>
       <c r="D3">
-        <v>1.054745458157885</v>
+        <v>1.042353262455033</v>
       </c>
       <c r="E3">
-        <v>1.054953632148761</v>
+        <v>1.037703929645142</v>
       </c>
       <c r="F3">
-        <v>1.065032014408452</v>
+        <v>1.04717363479532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0443166027211</v>
+        <v>1.053347636349277</v>
       </c>
       <c r="J3">
-        <v>1.052530759808397</v>
+        <v>1.045440287610797</v>
       </c>
       <c r="K3">
-        <v>1.057303205803162</v>
+        <v>1.052471454694672</v>
       </c>
       <c r="L3">
-        <v>1.057510847156796</v>
+        <v>1.04787608176224</v>
       </c>
       <c r="M3">
-        <v>1.067563711040477</v>
+        <v>1.057236506346743</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048395382249962</v>
+        <v>1.028204049814317</v>
       </c>
       <c r="D4">
-        <v>1.055194523577733</v>
+        <v>1.044330217393233</v>
       </c>
       <c r="E4">
-        <v>1.055451374365455</v>
+        <v>1.039835420897868</v>
       </c>
       <c r="F4">
-        <v>1.065569848291315</v>
+        <v>1.049469625688485</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044448320777421</v>
+        <v>1.054080935473529</v>
       </c>
       <c r="J4">
-        <v>1.052867653377263</v>
+        <v>1.046912810129518</v>
       </c>
       <c r="K4">
-        <v>1.057630897147674</v>
+        <v>1.053921509753586</v>
       </c>
       <c r="L4">
-        <v>1.057887123717556</v>
+        <v>1.049475712744881</v>
       </c>
       <c r="M4">
-        <v>1.067981264146262</v>
+        <v>1.059005521607634</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048633037433901</v>
+        <v>1.029277426062785</v>
       </c>
       <c r="D5">
-        <v>1.055383457526973</v>
+        <v>1.045153558615697</v>
       </c>
       <c r="E5">
-        <v>1.055660862469504</v>
+        <v>1.040723687361615</v>
       </c>
       <c r="F5">
-        <v>1.065796209485627</v>
+        <v>1.050426386286134</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044503493774262</v>
+        <v>1.054384139425987</v>
       </c>
       <c r="J5">
-        <v>1.053009292477182</v>
+        <v>1.047524996589436</v>
       </c>
       <c r="K5">
-        <v>1.057768643242555</v>
+        <v>1.054524209466295</v>
       </c>
       <c r="L5">
-        <v>1.058045388973859</v>
+        <v>1.050141336590323</v>
       </c>
       <c r="M5">
-        <v>1.068156903263886</v>
+        <v>1.059741726711724</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048672950669266</v>
+        <v>1.029457014503037</v>
       </c>
       <c r="D6">
-        <v>1.055415188927776</v>
+        <v>1.045291351813453</v>
       </c>
       <c r="E6">
-        <v>1.055696050304754</v>
+        <v>1.040872379837005</v>
       </c>
       <c r="F6">
-        <v>1.065834231472323</v>
+        <v>1.050586541070968</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044512745739651</v>
+        <v>1.05443475397358</v>
       </c>
       <c r="J6">
-        <v>1.053033074797942</v>
+        <v>1.047627388200851</v>
       </c>
       <c r="K6">
-        <v>1.057791770478991</v>
+        <v>1.054625005593355</v>
       </c>
       <c r="L6">
-        <v>1.058071966973496</v>
+        <v>1.050252700817174</v>
       </c>
       <c r="M6">
-        <v>1.068186399650323</v>
+        <v>1.059864905552844</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048398557146728</v>
+        <v>1.028218435160686</v>
       </c>
       <c r="D7">
-        <v>1.055197047547639</v>
+        <v>1.044341249165273</v>
       </c>
       <c r="E7">
-        <v>1.055454172625719</v>
+        <v>1.039847320345858</v>
       </c>
       <c r="F7">
-        <v>1.065572871937847</v>
+        <v>1.049482442928698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044449058793465</v>
+        <v>1.054085006709003</v>
       </c>
       <c r="J7">
-        <v>1.052869545931937</v>
+        <v>1.04692101691937</v>
       </c>
       <c r="K7">
-        <v>1.057632737779722</v>
+        <v>1.053929589952407</v>
       </c>
       <c r="L7">
-        <v>1.057889238158657</v>
+        <v>1.049484633555332</v>
       </c>
       <c r="M7">
-        <v>1.067983610654623</v>
+        <v>1.059015387971197</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047253078624127</v>
+        <v>1.022946899736508</v>
       </c>
       <c r="D8">
-        <v>1.054286503252453</v>
+        <v>1.040303438187482</v>
       </c>
       <c r="E8">
-        <v>1.054445182064364</v>
+        <v>1.035495800364548</v>
       </c>
       <c r="F8">
-        <v>1.06448260811233</v>
+        <v>1.044794880396589</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044181151514525</v>
+        <v>1.052579779044931</v>
       </c>
       <c r="J8">
-        <v>1.052186102219871</v>
+        <v>1.043909773486161</v>
       </c>
       <c r="K8">
-        <v>1.05696788044788</v>
+        <v>1.050963805558479</v>
       </c>
       <c r="L8">
-        <v>1.057126132408524</v>
+        <v>1.046215502106085</v>
       </c>
       <c r="M8">
-        <v>1.067136836953073</v>
+        <v>1.055400428809195</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045240139592754</v>
+        <v>1.013277038451333</v>
       </c>
       <c r="D9">
-        <v>1.052686841418247</v>
+        <v>1.032922249531312</v>
       </c>
       <c r="E9">
-        <v>1.05267494202276</v>
+        <v>1.027559100289076</v>
       </c>
       <c r="F9">
-        <v>1.062569754781738</v>
+        <v>1.036243098023157</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043702680197919</v>
+        <v>1.049756979168104</v>
       </c>
       <c r="J9">
-        <v>1.0509821752574</v>
+        <v>1.038369507154072</v>
       </c>
       <c r="K9">
-        <v>1.055795928480066</v>
+        <v>1.045502850092539</v>
       </c>
       <c r="L9">
-        <v>1.055784066568081</v>
+        <v>1.04022033222076</v>
       </c>
       <c r="M9">
-        <v>1.065648026917974</v>
+        <v>1.048774303610934</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043902001160398</v>
+        <v>1.006549728387506</v>
       </c>
       <c r="D10">
-        <v>1.051623756307175</v>
+        <v>1.027807324016393</v>
       </c>
       <c r="E10">
-        <v>1.051500088601749</v>
+        <v>1.022070810891464</v>
       </c>
       <c r="F10">
-        <v>1.061300235135973</v>
+        <v>1.030327789291634</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043379449530866</v>
+        <v>1.047753484008081</v>
       </c>
       <c r="J10">
-        <v>1.050179895633573</v>
+        <v>1.034505870819052</v>
       </c>
       <c r="K10">
-        <v>1.055014446313408</v>
+        <v>1.041692025944874</v>
       </c>
       <c r="L10">
-        <v>1.054891206176154</v>
+        <v>1.036052685411643</v>
       </c>
       <c r="M10">
-        <v>1.064657809341672</v>
+        <v>1.044170237174459</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04332349885199</v>
+        <v>1.003564231802068</v>
       </c>
       <c r="D11">
-        <v>1.051164247211499</v>
+        <v>1.025542832033038</v>
       </c>
       <c r="E11">
-        <v>1.050992645845067</v>
+        <v>1.019643647933876</v>
       </c>
       <c r="F11">
-        <v>1.060751899096817</v>
+        <v>1.02771133096069</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043238488100151</v>
+        <v>1.046855412913037</v>
       </c>
       <c r="J11">
-        <v>1.049832596262965</v>
+        <v>1.032789482624744</v>
       </c>
       <c r="K11">
-        <v>1.054676029952137</v>
+        <v>1.039998605530487</v>
       </c>
       <c r="L11">
-        <v>1.054505044747059</v>
+        <v>1.0342043841893</v>
       </c>
       <c r="M11">
-        <v>1.064229605046871</v>
+        <v>1.042128913411556</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043108757238664</v>
+        <v>1.002443851303123</v>
       </c>
       <c r="D12">
-        <v>1.050993689153792</v>
+        <v>1.0246939038897</v>
       </c>
       <c r="E12">
-        <v>1.050804352669001</v>
+        <v>1.018734120428103</v>
       </c>
       <c r="F12">
-        <v>1.060548431123664</v>
+        <v>1.026730797382109</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043185979158959</v>
+        <v>1.046517086855279</v>
       </c>
       <c r="J12">
-        <v>1.049703609095772</v>
+        <v>1.032145141868975</v>
       </c>
       <c r="K12">
-        <v>1.054550323988236</v>
+        <v>1.039362821505823</v>
       </c>
       <c r="L12">
-        <v>1.054361676722299</v>
+        <v>1.033510995266757</v>
       </c>
       <c r="M12">
-        <v>1.064070637623058</v>
+        <v>1.041363191322515</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043154813686889</v>
+        <v>1.002684703136238</v>
       </c>
       <c r="D13">
-        <v>1.051030268792048</v>
+        <v>1.024876360084661</v>
       </c>
       <c r="E13">
-        <v>1.050844733400948</v>
+        <v>1.018929583788736</v>
       </c>
       <c r="F13">
-        <v>1.060592066230378</v>
+        <v>1.026941523717734</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043197249262874</v>
+        <v>1.046589876114496</v>
       </c>
       <c r="J13">
-        <v>1.049731276568377</v>
+        <v>1.032283667374635</v>
       </c>
       <c r="K13">
-        <v>1.054577288460783</v>
+        <v>1.039499510234172</v>
       </c>
       <c r="L13">
-        <v>1.054392426480678</v>
+        <v>1.03366004416467</v>
       </c>
       <c r="M13">
-        <v>1.064104732725039</v>
+        <v>1.041527785169498</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043305745379946</v>
+        <v>1.003471857277602</v>
       </c>
       <c r="D14">
-        <v>1.051150146287525</v>
+        <v>1.025472820350464</v>
       </c>
       <c r="E14">
-        <v>1.050977077511004</v>
+        <v>1.019568630834968</v>
       </c>
       <c r="F14">
-        <v>1.060735076107066</v>
+        <v>1.027630458821019</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043234150742145</v>
+        <v>1.046827544439856</v>
       </c>
       <c r="J14">
-        <v>1.049821933824146</v>
+        <v>1.032736361542962</v>
       </c>
       <c r="K14">
-        <v>1.054665639112478</v>
+        <v>1.039946191167786</v>
       </c>
       <c r="L14">
-        <v>1.054493192474676</v>
+        <v>1.034147209837036</v>
       </c>
       <c r="M14">
-        <v>1.064216462971689</v>
+        <v>1.042065773115964</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04339875796408</v>
+        <v>1.003955317156358</v>
       </c>
       <c r="D15">
-        <v>1.051224023265178</v>
+        <v>1.025839276143923</v>
       </c>
       <c r="E15">
-        <v>1.05105864480267</v>
+        <v>1.019961301621985</v>
       </c>
       <c r="F15">
-        <v>1.060823216892016</v>
+        <v>1.028053774383122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043256867160706</v>
+        <v>1.046973346572749</v>
       </c>
       <c r="J15">
-        <v>1.049877792815791</v>
+        <v>1.033014372058954</v>
       </c>
       <c r="K15">
-        <v>1.054720074500278</v>
+        <v>1.040220500433459</v>
       </c>
       <c r="L15">
-        <v>1.054555286985651</v>
+        <v>1.0344464525253</v>
       </c>
       <c r="M15">
-        <v>1.064285315203361</v>
+        <v>1.042396243959227</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043940413984006</v>
+        <v>1.006746292732304</v>
       </c>
       <c r="D16">
-        <v>1.051654269713123</v>
+        <v>1.027956536219971</v>
       </c>
       <c r="E16">
-        <v>1.051533792961221</v>
+        <v>1.022230795770528</v>
       </c>
       <c r="F16">
-        <v>1.061336655516735</v>
+        <v>1.03050024172118</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043388783659832</v>
+        <v>1.047812429593102</v>
       </c>
       <c r="J16">
-        <v>1.050202946820233</v>
+        <v>1.03461884408211</v>
       </c>
       <c r="K16">
-        <v>1.05503690538899</v>
+        <v>1.041803477892113</v>
       </c>
       <c r="L16">
-        <v>1.05491684410781</v>
+        <v>1.036174406801063</v>
       </c>
       <c r="M16">
-        <v>1.064686239922704</v>
+        <v>1.044304681189547</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044280428066073</v>
+        <v>1.008477210817834</v>
       </c>
       <c r="D17">
-        <v>1.051924371098065</v>
+        <v>1.029271106282107</v>
       </c>
       <c r="E17">
-        <v>1.051832183933515</v>
+        <v>1.023640572377555</v>
       </c>
       <c r="F17">
-        <v>1.061659091340694</v>
+        <v>1.032019829824622</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043471264055973</v>
+        <v>1.048330481004176</v>
       </c>
       <c r="J17">
-        <v>1.050406933160311</v>
+        <v>1.035613475422609</v>
       </c>
       <c r="K17">
-        <v>1.055235638117655</v>
+        <v>1.042784660141081</v>
       </c>
       <c r="L17">
-        <v>1.055143761655923</v>
+        <v>1.037246415858426</v>
       </c>
       <c r="M17">
-        <v>1.064937882201134</v>
+        <v>1.04548879917134</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044478841230515</v>
+        <v>1.00947986623888</v>
       </c>
       <c r="D18">
-        <v>1.052081995061418</v>
+        <v>1.030033101029849</v>
       </c>
       <c r="E18">
-        <v>1.052006353380045</v>
+        <v>1.024458004620175</v>
       </c>
       <c r="F18">
-        <v>1.061847295174108</v>
+        <v>1.032900891724576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043519276901784</v>
+        <v>1.048629715361941</v>
       </c>
       <c r="J18">
-        <v>1.050525923826597</v>
+        <v>1.036189458279325</v>
       </c>
       <c r="K18">
-        <v>1.05535155262544</v>
+        <v>1.043352807248604</v>
       </c>
       <c r="L18">
-        <v>1.055276162433554</v>
+        <v>1.037867505936488</v>
       </c>
       <c r="M18">
-        <v>1.065084715430633</v>
+        <v>1.046174891662931</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.044546509988699</v>
+        <v>1.009820581126311</v>
       </c>
       <c r="D19">
-        <v>1.052135754001368</v>
+        <v>1.030292121860433</v>
       </c>
       <c r="E19">
-        <v>1.052065761473198</v>
+        <v>1.024735912865524</v>
       </c>
       <c r="F19">
-        <v>1.061911490227476</v>
+        <v>1.033200425520535</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043535631639219</v>
+        <v>1.048731253018017</v>
       </c>
       <c r="J19">
-        <v>1.05056649803606</v>
+        <v>1.036385154575816</v>
       </c>
       <c r="K19">
-        <v>1.055391075938611</v>
+        <v>1.043545832956558</v>
       </c>
       <c r="L19">
-        <v>1.05532131502983</v>
+        <v>1.038078578493112</v>
       </c>
       <c r="M19">
-        <v>1.065134790970212</v>
+        <v>1.046408063222948</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044243938586328</v>
+        <v>1.0082922233588</v>
       </c>
       <c r="D20">
-        <v>1.051895383653755</v>
+        <v>1.029130561235279</v>
       </c>
       <c r="E20">
-        <v>1.051800156665931</v>
+        <v>1.02348982256285</v>
       </c>
       <c r="F20">
-        <v>1.061624483311849</v>
+        <v>1.031857342111235</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043462424674001</v>
+        <v>1.048275203783341</v>
       </c>
       <c r="J20">
-        <v>1.050385046428027</v>
+        <v>1.035507194033993</v>
       </c>
       <c r="K20">
-        <v>1.055214316269955</v>
+        <v>1.042679820720975</v>
       </c>
       <c r="L20">
-        <v>1.055119411029089</v>
+        <v>1.037131835312124</v>
       </c>
       <c r="M20">
-        <v>1.064910877712589</v>
+        <v>1.045362230810743</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043261295883267</v>
+        <v>1.003240380123068</v>
       </c>
       <c r="D21">
-        <v>1.051114841913149</v>
+        <v>1.025297395583484</v>
       </c>
       <c r="E21">
-        <v>1.05093810010824</v>
+        <v>1.019380670397187</v>
       </c>
       <c r="F21">
-        <v>1.060692957492874</v>
+        <v>1.027427827010724</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043223288299918</v>
+        <v>1.046757689235398</v>
       </c>
       <c r="J21">
-        <v>1.049795237089495</v>
+        <v>1.032603244344389</v>
       </c>
       <c r="K21">
-        <v>1.054639622121151</v>
+        <v>1.039814843925728</v>
       </c>
       <c r="L21">
-        <v>1.054463517470015</v>
+        <v>1.034003943084476</v>
       </c>
       <c r="M21">
-        <v>1.064183558792073</v>
+        <v>1.041907558255919</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04264427964534</v>
+        <v>0.9999976409691952</v>
       </c>
       <c r="D22">
-        <v>1.050624803130376</v>
+        <v>1.02284205610075</v>
       </c>
       <c r="E22">
-        <v>1.050397212305951</v>
+        <v>1.01675077451422</v>
       </c>
       <c r="F22">
-        <v>1.060108477218626</v>
+        <v>1.024592476852265</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043072068645616</v>
+        <v>1.045776046457585</v>
       </c>
       <c r="J22">
-        <v>1.04942448961842</v>
+        <v>1.030737937437721</v>
       </c>
       <c r="K22">
-        <v>1.054278272074467</v>
+        <v>1.037974193967939</v>
       </c>
       <c r="L22">
-        <v>1.054051534125433</v>
+        <v>1.031997542068512</v>
       </c>
       <c r="M22">
-        <v>1.06372676703718</v>
+        <v>1.039692003018598</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04297129428722</v>
+        <v>1.001723164738197</v>
       </c>
       <c r="D23">
-        <v>1.050884513220619</v>
+        <v>1.024148084412269</v>
       </c>
       <c r="E23">
-        <v>1.050683840245416</v>
+        <v>1.018149445296714</v>
       </c>
       <c r="F23">
-        <v>1.060418206206289</v>
+        <v>1.026100456404226</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043152314810954</v>
+        <v>1.046299096204098</v>
       </c>
       <c r="J23">
-        <v>1.049621020987052</v>
+        <v>1.031730610529573</v>
       </c>
       <c r="K23">
-        <v>1.054469831730156</v>
+        <v>1.038953777726656</v>
       </c>
       <c r="L23">
-        <v>1.05426989560576</v>
+        <v>1.03306504248088</v>
       </c>
       <c r="M23">
-        <v>1.063968872817207</v>
+        <v>1.040870739829176</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044260426337666</v>
+        <v>1.008375832697981</v>
       </c>
       <c r="D24">
-        <v>1.051908481590094</v>
+        <v>1.029194082214961</v>
       </c>
       <c r="E24">
-        <v>1.05181462802962</v>
+        <v>1.023557954929237</v>
       </c>
       <c r="F24">
-        <v>1.061640120781333</v>
+        <v>1.031930779629041</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04346641910871</v>
+        <v>1.048300190242939</v>
       </c>
       <c r="J24">
-        <v>1.05039493607295</v>
+        <v>1.03555523088167</v>
       </c>
       <c r="K24">
-        <v>1.055223950704366</v>
+        <v>1.042727205978495</v>
       </c>
       <c r="L24">
-        <v>1.055130413894628</v>
+        <v>1.037183622271395</v>
       </c>
       <c r="M24">
-        <v>1.064923079710233</v>
+        <v>1.045419435746916</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045759866150321</v>
+        <v>1.015824511895143</v>
       </c>
       <c r="D25">
-        <v>1.053099808588945</v>
+        <v>1.034863513006973</v>
       </c>
       <c r="E25">
-        <v>1.053131664175613</v>
+        <v>1.029644418152557</v>
       </c>
       <c r="F25">
-        <v>1.063063274151133</v>
+        <v>1.038490301134402</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043827128696101</v>
+        <v>1.050507636473846</v>
       </c>
       <c r="J25">
-        <v>1.051293365266783</v>
+        <v>1.039830807085054</v>
       </c>
       <c r="K25">
-        <v>1.056098943913724</v>
+        <v>1.046943693611745</v>
       </c>
       <c r="L25">
-        <v>1.056130702946362</v>
+        <v>1.041799334418866</v>
       </c>
       <c r="M25">
-        <v>1.066032517586609</v>
+        <v>1.050519106464036</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
